--- a/oasys/build/classes/Holiday.xlsx
+++ b/oasys/build/classes/Holiday.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="19170" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -30,9 +31,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,10 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -396,55 +393,636 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>42250</v>
+        <v>42370</v>
       </c>
       <c r="B2" s="1">
-        <v>42253</v>
+        <v>42406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>42251</v>
+        <v>42371</v>
       </c>
       <c r="B3" s="1">
-        <v>42287</v>
+        <v>42414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>42252</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>42378</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42533</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42278</v>
+        <v>42385</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42631</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>42279</v>
+        <v>42392</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42651</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42282</v>
+        <v>42399</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42652</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>42283</v>
+        <v>42413</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>42284</v>
+        <v>42420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>42427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>42434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>42448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>42455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>42462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>42476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>42483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>42497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>42504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>42511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>42525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>42532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>42539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>42546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>42553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>42560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>42567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>42574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>42581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>42588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>42609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>42623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>42637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>42679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>42693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>42707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>42714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>42721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>42728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>42372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>42393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>42407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>42421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>42428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>42435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>42442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>42449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>42456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>42463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>42470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>42477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>42484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>42498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>42505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>42512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>42526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>42533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>42540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>42547</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>42554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>42561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>42568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>42596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>42610</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>42617</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>42624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>42631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>42673</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>42687</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>42694</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>42701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>42708</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>42715</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>42722</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>42729</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>42530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>42532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>42408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>42409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>42410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>42413</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
